--- a/biology/Zoologie/Boiga_trigonata/Boiga_trigonata.xlsx
+++ b/biology/Zoologie/Boiga_trigonata/Boiga_trigonata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga trigonata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga trigonata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, au Bangladesh, en Inde (dans les États du Bengale-Occidental, du Maharashtra et du Sikkim), en Iran, au Népal, dans le sud de l'Ouzbékistan, au Pakistan, au Sri Lanka, dans le Sud-Est du Tadjikistan et dans le Sud du Turkménistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, au Bangladesh, en Inde (dans les États du Bengale-Occidental, du Maharashtra et du Sikkim), en Iran, au Népal, dans le sud de l'Ouzbékistan, au Pakistan, au Sri Lanka, dans le Sud-Est du Tadjikistan et dans le Sud du Turkménistan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boiga trigonata trigonata (Schneider, 1802)
 Boiga trigonata melanocephala (Annandale, 1904) - Pakistan, Afghanistan</t>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Annandale, 1904 : Additions to the Collection of Oriental Snakes in the Indian Museum. Journal of the Asiatic Society of Bengal, vol. 73, p. 207-211 (texte intégral).
 Schneider in Bechstein, 1802 : Herrn de Lacépède's Naturgeschichte der Amphibien oder der eyerlegenden vierfüssigen Thiere und der Schlangen. Eine Fortsetzung von Buffon's Naturgeschichte aus dem Französischen übersetzt und mit Anmerkungen und Zusätzen versehen, p. 1-298 (texte intégral).</t>
